--- a/benchmarks/TS1reducedWC.xlsx
+++ b/benchmarks/TS1reducedWC.xlsx
@@ -761,10 +761,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -860,33 +860,6 @@
       <c r="F2" s="1" t="n">
         <v>0.917</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0.917</v>
-      </c>
       <c r="P2" s="3" t="s">
         <v>18</v>
       </c>
@@ -913,33 +886,6 @@
       <c r="F3" s="1" t="n">
         <v>0.88</v>
       </c>
-      <c r="G3" s="2" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>0.936</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>0.857</v>
-      </c>
       <c r="P3" s="3" t="s">
         <v>21</v>
       </c>
@@ -966,33 +912,6 @@
       <c r="F4" s="1" t="n">
         <v>0.743</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0.75</v>
-      </c>
       <c r="P4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1019,33 +938,6 @@
       <c r="F5" s="1" t="n">
         <v>0.767</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>0.442</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>0.627</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>0.627</v>
-      </c>
       <c r="P5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1072,33 +964,6 @@
       <c r="F6" s="1" t="n">
         <v>0.966</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1125,33 +990,6 @@
       <c r="F7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1178,33 +1016,6 @@
       <c r="F8" s="1" t="n">
         <v>0.718</v>
       </c>
-      <c r="G8" s="2" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>0.588</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1231,33 +1042,6 @@
       <c r="F9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>0.824</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>39</v>
       </c>
@@ -1284,33 +1068,6 @@
       <c r="F10" s="1" t="n">
         <v>0.928</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>0.492</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>42</v>
       </c>
@@ -1337,33 +1094,6 @@
       <c r="F11" s="1" t="n">
         <v>0.762</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>0.783</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>0.682</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>0.682</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>0.682</v>
-      </c>
       <c r="P11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1390,33 +1120,6 @@
       <c r="F12" s="1" t="n">
         <v>0.949</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>0.966</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>48</v>
       </c>
@@ -1443,33 +1146,6 @@
       <c r="F13" s="1" t="n">
         <v>0.936</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>0.955</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>0.773</v>
-      </c>
       <c r="P13" s="3" t="s">
         <v>51</v>
       </c>
@@ -1496,33 +1172,6 @@
       <c r="F14" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0.741</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <v>0.741</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>0.769</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>54</v>
       </c>
@@ -1549,33 +1198,6 @@
       <c r="F15" s="1" t="n">
         <v>0.867</v>
       </c>
-      <c r="G15" s="2" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <v>0.836</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>0.894</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>0.85</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1602,33 +1224,6 @@
       <c r="F16" s="1" t="n">
         <v>0.97</v>
       </c>
-      <c r="G16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P16" s="3" t="s">
         <v>60</v>
       </c>
@@ -1655,33 +1250,6 @@
       <c r="F17" s="1" t="n">
         <v>0.829</v>
       </c>
-      <c r="G17" s="2" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="O17" s="1" t="n">
-        <v>0.667</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1708,33 +1276,6 @@
       <c r="F18" s="1" t="n">
         <v>0.765</v>
       </c>
-      <c r="G18" s="2" t="n">
-        <v>0.742</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>0.775</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>66</v>
       </c>
@@ -1761,33 +1302,6 @@
       <c r="F19" s="1" t="n">
         <v>0.364</v>
       </c>
-      <c r="G19" s="2" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>0.462</v>
-      </c>
       <c r="P19" s="3" t="s">
         <v>69</v>
       </c>
@@ -1814,33 +1328,6 @@
       <c r="F20" s="1" t="n">
         <v>0.846</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <v>0.968</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>72</v>
       </c>
@@ -1867,33 +1354,6 @@
       <c r="F21" s="1" t="n">
         <v>0.941</v>
       </c>
-      <c r="G21" s="2" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>0.885</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>0.923</v>
-      </c>
-      <c r="O21" s="1" t="n">
-        <v>0.851</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>75</v>
       </c>
@@ -1920,33 +1380,6 @@
       <c r="F22" s="1" t="n">
         <v>0.615</v>
       </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="O22" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>78</v>
       </c>
@@ -1973,33 +1406,6 @@
       <c r="F23" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>81</v>
       </c>
@@ -2026,33 +1432,6 @@
       <c r="F24" s="1" t="n">
         <v>0.706</v>
       </c>
-      <c r="G24" s="2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O24" s="1" t="n">
-        <v>0.735</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>84</v>
       </c>
@@ -2079,33 +1458,6 @@
       <c r="F25" s="1" t="n">
         <v>0.936</v>
       </c>
-      <c r="G25" s="2" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>0.943</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P25" s="3" t="s">
         <v>87</v>
       </c>
@@ -2132,33 +1484,6 @@
       <c r="F26" s="1" t="n">
         <v>0.909</v>
       </c>
-      <c r="G26" s="2" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>0.963</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <v>0.88</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>90</v>
       </c>
@@ -2185,33 +1510,6 @@
       <c r="F27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>93</v>
       </c>
@@ -2238,33 +1536,6 @@
       <c r="F28" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="G28" s="2" t="n">
-        <v>0.561</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v>0.566</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>0.593</v>
-      </c>
       <c r="P28" s="3" t="s">
         <v>96</v>
       </c>
@@ -2291,33 +1562,6 @@
       <c r="F29" s="1" t="n">
         <v>0.429</v>
       </c>
-      <c r="G29" s="2" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="I29" s="1" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="K29" s="1" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="O29" s="1" t="n">
-        <v>0.727</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>99</v>
       </c>
@@ -2344,33 +1588,6 @@
       <c r="F30" s="1" t="n">
         <v>0.959</v>
       </c>
-      <c r="G30" s="2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>0.389</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>0.418</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>0.438</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>0.451</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="O30" s="1" t="n">
-        <v>0.438</v>
-      </c>
       <c r="P30" s="3" t="s">
         <v>102</v>
       </c>
@@ -2397,33 +1614,6 @@
       <c r="F31" s="1" t="n">
         <v>0.556</v>
       </c>
-      <c r="G31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="N31" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="O31" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" s="3" t="s">
         <v>105</v>
       </c>
@@ -2450,33 +1640,6 @@
       <c r="F32" s="1" t="n">
         <v>0.983</v>
       </c>
-      <c r="G32" s="2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>0.689</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="J32" s="1" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="N32" s="1" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="O32" s="1" t="n">
-        <v>0.983</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>108</v>
       </c>
@@ -2503,33 +1666,6 @@
       <c r="F33" s="1" t="n">
         <v>0.667</v>
       </c>
-      <c r="G33" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O33" s="1" t="n">
-        <v>0.6</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>111</v>
       </c>
@@ -2556,33 +1692,6 @@
       <c r="F34" s="1" t="n">
         <v>0.903</v>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="H34" s="1" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="I34" s="1" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>0.455</v>
-      </c>
       <c r="P34" s="3" t="s">
         <v>114</v>
       </c>
@@ -2609,33 +1718,6 @@
       <c r="F35" s="1" t="n">
         <v>0.889</v>
       </c>
-      <c r="G35" s="2" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>0.958</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>117</v>
       </c>
@@ -2662,33 +1744,6 @@
       <c r="F36" s="1" t="n">
         <v>0.457</v>
       </c>
-      <c r="G36" s="2" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="H36" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="1" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="J36" s="1" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="O36" s="1" t="n">
-        <v>0.533</v>
-      </c>
       <c r="P36" s="3" t="s">
         <v>120</v>
       </c>
@@ -2715,33 +1770,6 @@
       <c r="F37" s="1" t="n">
         <v>0.909</v>
       </c>
-      <c r="G37" s="2" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="K37" s="1" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>0.821</v>
-      </c>
       <c r="P37" s="3" t="s">
         <v>123</v>
       </c>
@@ -2768,33 +1796,6 @@
       <c r="F38" s="1" t="n">
         <v>0.936</v>
       </c>
-      <c r="G38" s="2" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="M38" s="1" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>0.615</v>
-      </c>
       <c r="P38" s="3" t="s">
         <v>126</v>
       </c>
@@ -2821,33 +1822,6 @@
       <c r="F39" s="1" t="n">
         <v>0.909</v>
       </c>
-      <c r="G39" s="2" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="K39" s="1" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="O39" s="1" t="n">
-        <v>0.957</v>
-      </c>
       <c r="P39" s="3" t="s">
         <v>129</v>
       </c>
@@ -2874,33 +1848,6 @@
       <c r="F40" s="1" t="n">
         <v>0.944</v>
       </c>
-      <c r="G40" s="2" t="n">
-        <v>0.722</v>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="J40" s="1" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="K40" s="1" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="M40" s="1" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="N40" s="1" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="O40" s="1" t="n">
-        <v>0.647</v>
-      </c>
       <c r="P40" s="3" t="s">
         <v>132</v>
       </c>
@@ -2927,33 +1874,6 @@
       <c r="F41" s="1" t="n">
         <v>0.773</v>
       </c>
-      <c r="G41" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H41" s="1" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I41" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="J41" s="1" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="K41" s="1" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <v>0.723</v>
-      </c>
-      <c r="N41" s="1" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O41" s="1" t="n">
-        <v>0.667</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>135</v>
       </c>
@@ -2980,33 +1900,6 @@
       <c r="F42" s="1" t="n">
         <v>0.946</v>
       </c>
-      <c r="G42" s="2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H42" s="1" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="I42" s="1" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="J42" s="1" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K42" s="1" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="L42" s="1" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="M42" s="1" t="n">
-        <v>0.904</v>
-      </c>
-      <c r="N42" s="1" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="O42" s="1" t="n">
-        <v>0.299</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>138</v>
       </c>
@@ -3033,33 +1926,6 @@
       <c r="F43" s="1" t="n">
         <v>0.884</v>
       </c>
-      <c r="G43" s="2" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="I43" s="1" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="K43" s="1" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="L43" s="1" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="M43" s="1" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="N43" s="1" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="O43" s="1" t="n">
-        <v>0.905</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>141</v>
       </c>
@@ -3086,33 +1952,6 @@
       <c r="F44" s="1" t="n">
         <v>0.914</v>
       </c>
-      <c r="G44" s="2" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="H44" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="I44" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="K44" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="N44" s="1" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="O44" s="1" t="n">
-        <v>0.941</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>144</v>
       </c>
@@ -3139,33 +1978,6 @@
       <c r="F45" s="1" t="n">
         <v>0.727</v>
       </c>
-      <c r="G45" s="2" t="n">
-        <v>0.743</v>
-      </c>
-      <c r="H45" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>0.812</v>
-      </c>
-      <c r="J45" s="1" t="n">
-        <v>0.882</v>
-      </c>
-      <c r="K45" s="1" t="n">
-        <v>0.811</v>
-      </c>
-      <c r="L45" s="1" t="n">
-        <v>0.812</v>
-      </c>
-      <c r="M45" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N45" s="1" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="O45" s="1" t="n">
-        <v>0.812</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>147</v>
       </c>
@@ -3192,33 +2004,6 @@
       <c r="F46" s="1" t="n">
         <v>0.941</v>
       </c>
-      <c r="G46" s="2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K46" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="M46" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N46" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="O46" s="1" t="n">
-        <v>0.97</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>150</v>
       </c>
@@ -3245,33 +2030,6 @@
       <c r="F47" s="1" t="n">
         <v>0.829</v>
       </c>
-      <c r="G47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" s="1" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="M47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" s="1" t="n">
-        <v>0.81</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>153</v>
       </c>
@@ -3298,33 +2056,6 @@
       <c r="F48" s="1" t="n">
         <v>0.897</v>
       </c>
-      <c r="G48" s="2" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="I48" s="1" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="1" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="L48" s="1" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="M48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" s="1" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="O48" s="1" t="n">
-        <v>0.421</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>156</v>
       </c>
@@ -3351,33 +2082,6 @@
       <c r="F49" s="1" t="n">
         <v>0.464</v>
       </c>
-      <c r="G49" s="2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>0.378</v>
-      </c>
-      <c r="K49" s="1" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L49" s="1" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="M49" s="1" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N49" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O49" s="1" t="n">
-        <v>0.357</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>159</v>
       </c>
@@ -3404,33 +2108,6 @@
       <c r="F50" s="1" t="n">
         <v>0.852</v>
       </c>
-      <c r="G50" s="2" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="H50" s="1" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="J50" s="1" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="K50" s="1" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="L50" s="1" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="M50" s="1" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="N50" s="1" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="O50" s="1" t="n">
-        <v>0.842</v>
-      </c>
       <c r="P50" s="3" t="s">
         <v>162</v>
       </c>
@@ -3457,33 +2134,6 @@
       <c r="F51" s="1" t="n">
         <v>0.737</v>
       </c>
-      <c r="G51" s="2" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="H51" s="1" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="I51" s="1" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="J51" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="K51" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="L51" s="1" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="M51" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="N51" s="1" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="O51" s="1" t="n">
-        <v>0.737</v>
-      </c>
       <c r="P51" s="3" t="s">
         <v>165</v>
       </c>
@@ -3510,33 +2160,6 @@
       <c r="F52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G52" s="2" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="K52" s="1" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="L52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" s="1" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="O52" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>168</v>
       </c>
@@ -3563,33 +2186,6 @@
       <c r="F53" s="1" t="n">
         <v>0.895</v>
       </c>
-      <c r="G53" s="2" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="J53" s="1" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="K53" s="1" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="L53" s="1" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="M53" s="1" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="N53" s="1" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="O53" s="1" t="n">
-        <v>0.895</v>
-      </c>
       <c r="P53" s="3" t="s">
         <v>171</v>
       </c>
@@ -3616,33 +2212,6 @@
       <c r="F54" s="1" t="n">
         <v>0.513</v>
       </c>
-      <c r="G54" s="2" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J54" s="1" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="K54" s="1" t="n">
-        <v>0.545</v>
-      </c>
-      <c r="L54" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M54" s="1" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="N54" s="1" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="O54" s="1" t="n">
-        <v>0.5</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>174</v>
       </c>
@@ -3669,33 +2238,6 @@
       <c r="F55" s="1" t="n">
         <v>0.889</v>
       </c>
-      <c r="G55" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J55" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="K55" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="L55" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M55" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N55" s="1" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O55" s="1" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P55" s="3" t="s">
         <v>177</v>
       </c>
@@ -3722,33 +2264,6 @@
       <c r="F56" s="1" t="n">
         <v>0.889</v>
       </c>
-      <c r="G56" s="2" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="I56" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="K56" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L56" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M56" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="N56" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="O56" s="1" t="n">
-        <v>0.889</v>
-      </c>
       <c r="P56" s="3" t="s">
         <v>180</v>
       </c>
@@ -3775,33 +2290,6 @@
       <c r="F57" s="1" t="n">
         <v>0.923</v>
       </c>
-      <c r="G57" s="2" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="I57" s="1" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="J57" s="1" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="K57" s="1" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="L57" s="1" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="M57" s="1" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="N57" s="1" t="n">
-        <v>0.947</v>
-      </c>
-      <c r="O57" s="1" t="n">
-        <v>0.895</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>183</v>
       </c>
@@ -3828,33 +2316,6 @@
       <c r="F58" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="G58" s="2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I58" s="1" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="J58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="L58" s="1" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="M58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" s="1" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="O58" s="1" t="n">
-        <v>0.952</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>186</v>
       </c>
@@ -3881,33 +2342,6 @@
       <c r="F59" s="1" t="n">
         <v>0.841</v>
       </c>
-      <c r="G59" s="2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>0.592</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="J59" s="1" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="K59" s="1" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L59" s="1" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="M59" s="1" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="N59" s="1" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="O59" s="1" t="n">
-        <v>0.464</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>189</v>
       </c>
@@ -3934,33 +2368,6 @@
       <c r="F60" s="1" t="n">
         <v>0.947</v>
       </c>
-      <c r="G60" s="2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I60" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J60" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K60" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M60" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N60" s="1" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O60" s="1" t="n">
-        <v>0.7</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>192</v>
       </c>
@@ -3987,33 +2394,6 @@
       <c r="F61" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="G61" s="2" t="n">
-        <v>0.571</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="J61" s="1" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K61" s="1" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="L61" s="1" t="n">
-        <v>0.615</v>
-      </c>
-      <c r="M61" s="1" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="N61" s="1" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="O61" s="1" t="n">
-        <v>0.615</v>
-      </c>
       <c r="P61" s="3" t="s">
         <v>195</v>
       </c>
@@ -4040,33 +2420,6 @@
       <c r="F62" s="1" t="n">
         <v>0.733</v>
       </c>
-      <c r="G62" s="2" t="n">
-        <v>0.769</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="I62" s="1" t="n">
-        <v>0.847</v>
-      </c>
-      <c r="J62" s="1" t="n">
-        <v>0.954</v>
-      </c>
-      <c r="K62" s="1" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="L62" s="1" t="n">
-        <v>0.847</v>
-      </c>
-      <c r="M62" s="1" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N62" s="1" t="n">
-        <v>0.818</v>
-      </c>
-      <c r="O62" s="1" t="n">
-        <v>0.847</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>198</v>
       </c>
@@ -4092,33 +2445,6 @@
       </c>
       <c r="F63" s="1" t="n">
         <v>0.621</v>
-      </c>
-      <c r="G63" s="2" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="J63" s="1" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="K63" s="1" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="L63" s="1" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="M63" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N63" s="1" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="O63" s="1" t="n">
-        <v>0.471</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>201</v>
